--- a/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\010_ 2016-23 BANKA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\011_ 2018-2023_ Kira-Mali_Hesaplar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA9A4DC-83CF-49DE-A94A-8905856D7AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3E1A3-CF7F-4BE3-B4AC-7A46975B86C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
+    <workbookView xWindow="405" yWindow="3885" windowWidth="12150" windowHeight="11040" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>22/12/2016</t>
   </si>
@@ -234,9 +234,6 @@
     <t>kira bedeli</t>
   </si>
   <si>
-    <t>iade tutarı</t>
-  </si>
-  <si>
     <t>% 20 vergi</t>
   </si>
   <si>
@@ -328,6 +325,51 @@
   </si>
   <si>
     <t>ödenecek</t>
+  </si>
+  <si>
+    <t>brüt</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>iade/vergi tutarı</t>
+  </si>
+  <si>
+    <t>merdal kipel eksik ödeme</t>
+  </si>
+  <si>
+    <t>merdal kipel</t>
+  </si>
+  <si>
+    <t>bankadan</t>
+  </si>
+  <si>
+    <t>icradan</t>
+  </si>
+  <si>
+    <t>vergisi ödenen</t>
+  </si>
+  <si>
+    <t>ödeme</t>
+  </si>
+  <si>
+    <t>eksik vergi</t>
+  </si>
+  <si>
+    <t>toplam vergi</t>
+  </si>
+  <si>
+    <t>brüt kira</t>
+  </si>
+  <si>
+    <t>net kira</t>
+  </si>
+  <si>
+    <t>ödenmiş vergi</t>
+  </si>
+  <si>
+    <t>TOPLAMLAR</t>
   </si>
 </sst>
 </file>
@@ -337,15 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +424,29 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +477,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -432,11 +493,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,9 +525,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -477,25 +537,42 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,1154 +884,1361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>2016</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11756</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
         <v>800</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>2018</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>C7*0.8</f>
+        <f>D7*0.8</f>
         <v>32500</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>40625</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8125</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1750</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="G8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>1750</v>
-      </c>
-      <c r="D8">
-        <v>350</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>2019</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>C11*0.8</f>
+        <f>D11*0.8</f>
         <v>39000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>48750</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>9750</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>2000</v>
-      </c>
-      <c r="D12">
-        <v>400</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>2020</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17">
         <v>44000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>48888.88</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>4888.8900000000003</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="27">
         <v>1800</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="27"/>
+      <c r="D18" s="2">
         <v>2000</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>200</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>382789</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7">
         <v>44000</v>
       </c>
-      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>382789</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6"/>
+      <c r="D21" s="8">
         <v>1800</v>
       </c>
-      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>382789</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="25">
         <v>4800</v>
       </c>
-      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>66927</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="1"/>
+      <c r="D25" s="24">
         <v>24000</v>
       </c>
-      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>2021</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>66927</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7">
         <v>6000</v>
       </c>
-      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>382789</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6"/>
+      <c r="D34" s="8">
         <v>3000</v>
       </c>
-      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>2022</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>382789</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1"/>
+      <c r="D41" s="4">
         <v>500</v>
       </c>
-      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>382789</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6"/>
+      <c r="D42" s="7">
         <v>3300</v>
       </c>
-      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>382789</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="1"/>
+      <c r="D44" s="24">
         <v>10300</v>
       </c>
-      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>382789</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="1"/>
+      <c r="D45" s="24">
         <v>9000</v>
       </c>
-      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="13"/>
+      <c r="G46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="12"/>
+      <c r="G47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="13"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>2020</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="E49" s="13"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="13"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>382789</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="25">
         <v>4800</v>
       </c>
-      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4"/>
+      <c r="G50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>66927</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="1"/>
+      <c r="D51" s="24">
         <v>24000</v>
       </c>
-      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2"/>
+      <c r="G51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="13"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="13"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="13"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>2021</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>D55*0.8</f>
+        <v>51800</v>
+      </c>
+      <c r="D55">
+        <v>64750</v>
+      </c>
+      <c r="E55">
+        <f>E57</f>
+        <v>10790</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="4">
+        <f>D60+D61</f>
+        <v>10800</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="2">
+        <f>D59</f>
+        <v>43160</v>
+      </c>
+      <c r="E57">
+        <v>10790</v>
+      </c>
+      <c r="G57" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>C55*0.8</f>
-        <v>51800</v>
-      </c>
-      <c r="C55">
-        <v>64750</v>
-      </c>
-      <c r="D55">
-        <f>D57</f>
-        <v>10790</v>
-      </c>
-      <c r="F55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="4">
-        <f>C60+C61</f>
-        <v>10800</v>
-      </c>
-      <c r="F56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="2">
-        <f>C59</f>
-        <v>43160</v>
-      </c>
-      <c r="D57">
-        <v>10790</v>
-      </c>
-      <c r="F57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
-      <c r="C58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="10"/>
+      <c r="D58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1268616</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="10"/>
+      <c r="D59" s="13">
         <v>43160</v>
       </c>
-      <c r="D59" s="13">
-        <f>C59/80*100*0.2</f>
+      <c r="E59" s="13">
+        <f>D59/80*100*0.2</f>
         <v>10790</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="13"/>
+      <c r="G59" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1268616</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="10"/>
+      <c r="D60" s="13">
         <v>4800</v>
       </c>
-      <c r="D60" s="13"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="13"/>
+      <c r="G60" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1268616</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="10"/>
+      <c r="D61" s="13">
         <v>6000</v>
       </c>
-      <c r="D61" s="13"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="13"/>
+      <c r="G61" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="H61" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
-      <c r="C62" s="14">
-        <f>SUM(C59:C61)</f>
+      <c r="C62" s="10"/>
+      <c r="D62" s="14">
+        <f>SUM(D59:D61)</f>
         <v>53960</v>
       </c>
-      <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1268616</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="10"/>
+      <c r="D64" s="16">
         <v>5997</v>
       </c>
-      <c r="D64" s="13"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="13"/>
+      <c r="G64" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="13"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>2022</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="E67" s="13"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="13"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68">
-        <f>C68*0.8</f>
+        <f>D68*0.8</f>
         <v>80000</v>
       </c>
-      <c r="C68" s="28">
+      <c r="D68" s="28">
         <v>100000</v>
       </c>
-      <c r="D68" s="13">
+      <c r="E68" s="13">
         <v>20000</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="13"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="13"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="13"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1268616</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="10"/>
+      <c r="D70" s="13">
         <v>80000</v>
       </c>
-      <c r="D70" s="13"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="13"/>
+      <c r="G70" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="H70" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="13"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>2023</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="E72" s="13"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="13"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="4">
-        <f>C73-D73</f>
+        <f>D73-E73</f>
         <v>213800</v>
       </c>
-      <c r="C73" s="26">
-        <f>C93/80*100</f>
+      <c r="C73" s="4"/>
+      <c r="D73" s="26">
+        <f>D96/80*100</f>
         <v>267250</v>
       </c>
-      <c r="D73" s="29">
-        <f>C73*0.2</f>
+      <c r="E73" s="29">
+        <f>D73*0.2</f>
         <v>53450</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="13"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1268616</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75">
+        <f>D75*1.25</f>
+        <v>6000</v>
+      </c>
+      <c r="D75" s="13">
         <v>4800</v>
       </c>
-      <c r="D75" s="13">
-        <f>C75*0.2</f>
-        <v>960</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="11" t="s">
+      <c r="E75" s="13">
+        <f>C75*20/100</f>
+        <v>1200</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="12" t="s">
+      <c r="H75" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1268616</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76">
+        <f>D76*1.25</f>
+        <v>2650</v>
+      </c>
+      <c r="D76" s="13">
         <v>2120</v>
       </c>
-      <c r="D76" s="13">
-        <f>C76*0.2</f>
-        <v>424</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="11" t="s">
+      <c r="E76" s="13">
+        <f>C76*20/100</f>
+        <v>530</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="12" t="s">
+      <c r="H76" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1268616</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77">
+        <f>D77*1.25</f>
+        <v>35100</v>
+      </c>
+      <c r="D77" s="30">
         <v>28080</v>
       </c>
-      <c r="D77" s="13">
-        <f>C77*0.2</f>
-        <v>5616</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" s="12" t="s">
+      <c r="E77" s="13">
+        <f>C77*20/100</f>
+        <v>7020</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1268616</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="13">
-        <v>135000</v>
-      </c>
-      <c r="D78" s="13">
-        <f>C78*0.2</f>
-        <v>27000</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1268616</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79">
+        <f>D79*1.25</f>
+        <v>16250</v>
+      </c>
+      <c r="D79" s="2">
+        <v>13000</v>
+      </c>
+      <c r="E79" s="13">
+        <f>C79*20/100</f>
+        <v>3250</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="2">
-        <v>13000</v>
-      </c>
-      <c r="D79" s="13">
-        <f>C79*0.2</f>
-        <v>2600</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="3" t="s">
+      <c r="H79" t="s">
         <v>76</v>
       </c>
-      <c r="G79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1268616</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="13">
-        <v>2400</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13">
-        <f>C81*0.2</f>
-        <v>480</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1268616</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="13">
-        <v>2400</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13">
-        <f>C82*0.2</f>
-        <v>480</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1268616</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="13">
-        <v>10000</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13">
-        <f>C83*0.2</f>
-        <v>2000</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C81" s="10">
+        <v>168750</v>
+      </c>
+      <c r="D81" s="30">
+        <v>135000</v>
+      </c>
+      <c r="E81" s="10">
+        <f>C81*20/100</f>
+        <v>33750</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1268616</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="13">
+      <c r="B84" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <f>D84*1.25</f>
+        <v>3000</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13">
         <f>C84*0.2</f>
-        <v>1200</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1268616</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <f>D85*1.25</f>
+        <v>3000</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13">
+        <f t="shared" ref="F85:F88" si="0">C85*0.2</f>
+        <v>600</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1268616</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <f>D86*1.25</f>
+        <v>12500</v>
+      </c>
+      <c r="D86" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1268616</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <f>D87*1.25</f>
+        <v>7500</v>
+      </c>
+      <c r="D87" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="13">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1268616</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88">
+        <f>D88*1.25</f>
+        <v>12500</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C85" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13">
-        <f>C85*0.2</f>
-        <v>2000</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="H88" t="s">
         <v>73</v>
       </c>
-      <c r="G85" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" t="s">
         <v>96</v>
       </c>
-      <c r="E86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="E90" s="2">
+        <f>SUM(E75:E89)</f>
+        <v>45750</v>
+      </c>
+      <c r="F90" s="2">
+        <f>SUM(F84:F89)</f>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="2">
-        <f>SUM(D75:D86)</f>
-        <v>36600</v>
-      </c>
-      <c r="E87" s="2">
-        <f>SUM(E81:E86)</f>
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E89" s="4">
-        <f>E87+D87</f>
-        <v>42760</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="10"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="14">
-        <f>SUM(C75:C90)</f>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E92" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="38">
+        <f>F90+E90</f>
+        <v>53450</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="22">
+        <f>SUM(C75:C92)</f>
+        <v>267250</v>
+      </c>
+      <c r="D96" s="39">
+        <f>SUM(D75:D93)</f>
         <v>213800</v>
       </c>
-      <c r="D93" s="17">
-        <f>D87</f>
-        <v>36600</v>
-      </c>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="19" t="s">
+      <c r="E96" s="40">
+        <f>E90</f>
+        <v>45750</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="9">
-        <f>B73*0.2</f>
-        <v>42760</v>
-      </c>
-      <c r="D94" s="20">
-        <f>D93-C94</f>
-        <v>-6160</v>
-      </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="30"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="9">
+        <f>D73*0.2</f>
+        <v>53450</v>
+      </c>
+      <c r="E97" s="20">
+        <f>E96-D97</f>
+        <v>-7700</v>
+      </c>
+      <c r="F97" s="20"/>
+      <c r="G97" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="35">
+        <v>1395</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="E99" s="4">
+        <f>E97+E98</f>
+        <v>-6305</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="2">
+        <f>SUM(D75:D77)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="2">
+        <f>SUM(D104:D105)</f>
+        <v>48000</v>
+      </c>
+      <c r="E106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="30">
+        <f>D106*0.2</f>
+        <v>9600</v>
+      </c>
+      <c r="E107" s="36">
+        <f>D107-E111</f>
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109">
+        <v>6000</v>
+      </c>
+      <c r="E109">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>35025</v>
+      </c>
+      <c r="E110">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E111" s="34">
+        <f>SUM(E109:E110)</f>
+        <v>8205</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:G88">
-    <sortCondition ref="A15:A88"/>
-    <sortCondition ref="C15:C88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H91">
+    <sortCondition ref="A15:A91"/>
+    <sortCondition ref="D15:D91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\011_ 2018-2023_ Kira-Mali_Hesaplar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3E1A3-CF7F-4BE3-B4AC-7A46975B86C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAC3BC-EAE5-47D3-87FA-8EF1FA1FB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="3885" windowWidth="12150" windowHeight="11040" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
   <si>
     <t>22/12/2016</t>
   </si>
@@ -234,9 +235,6 @@
     <t>kira bedeli</t>
   </si>
   <si>
-    <t>% 20 vergi</t>
-  </si>
-  <si>
     <t>kesinti ile ödenmiş</t>
   </si>
   <si>
@@ -318,24 +316,15 @@
     <t>vergiler</t>
   </si>
   <si>
-    <t>vergiler toplamı</t>
-  </si>
-  <si>
     <t>ödenmiş</t>
   </si>
   <si>
-    <t>ödenecek</t>
-  </si>
-  <si>
     <t>brüt</t>
   </si>
   <si>
     <t>net</t>
   </si>
   <si>
-    <t>iade/vergi tutarı</t>
-  </si>
-  <si>
     <t>merdal kipel eksik ödeme</t>
   </si>
   <si>
@@ -357,9 +346,6 @@
     <t>eksik vergi</t>
   </si>
   <si>
-    <t>toplam vergi</t>
-  </si>
-  <si>
     <t>brüt kira</t>
   </si>
   <si>
@@ -370,6 +356,84 @@
   </si>
   <si>
     <t>TOPLAMLAR</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>götürü</t>
+  </si>
+  <si>
+    <t>sny</t>
+  </si>
+  <si>
+    <t>%20 vergi</t>
+  </si>
+  <si>
+    <t>kendi</t>
+  </si>
+  <si>
+    <t>elden</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vergi </t>
+  </si>
+  <si>
+    <t>ödenen</t>
+  </si>
+  <si>
+    <t>iade</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>iade toplamı</t>
+  </si>
+  <si>
+    <t>vergiye tabii net gelir</t>
+  </si>
+  <si>
+    <t>ödenen stopaj</t>
+  </si>
+  <si>
+    <t>stopaj</t>
+  </si>
+  <si>
+    <t>ödenmeyen</t>
+  </si>
+  <si>
+    <t>merdalın ödemediği</t>
+  </si>
+  <si>
+    <t>2023 ödenen vergi</t>
+  </si>
+  <si>
+    <t>resmi ödenen vergi</t>
+  </si>
+  <si>
+    <t>vergi tutarı</t>
+  </si>
+  <si>
+    <t>götürü istisna</t>
+  </si>
+  <si>
+    <t>vergiye tabii</t>
+  </si>
+  <si>
+    <t>ödenecek vergi</t>
   </si>
 </sst>
 </file>
@@ -379,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +509,23 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -484,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -492,11 +573,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,7 +663,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -570,9 +671,40 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +1039,7 @@
         <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,7 +1047,7 @@
         <v>2016</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="22"/>
     </row>
@@ -944,11 +1076,11 @@
         <v>2018</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,7 +1100,7 @@
         <v>8125</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,7 +1111,7 @@
         <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,11 +1119,11 @@
         <v>2019</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,7 +1138,7 @@
         <v>9750</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1017,7 +1149,7 @@
         <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1025,11 +1157,11 @@
         <v>2020</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1048,7 +1180,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,7 +1197,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,7 +1314,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,7 +1325,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,7 +1336,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,11 +1362,11 @@
         <v>2021</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1282,7 +1414,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1290,11 +1422,11 @@
         <v>2022</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1384,7 +1516,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" s="12"/>
     </row>
@@ -1395,7 +1527,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" s="12"/>
     </row>
@@ -1413,11 +1545,11 @@
         <v>2020</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -1488,11 +1620,11 @@
         <v>2021</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -1512,7 +1644,7 @@
         <v>10790</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,7 +1653,7 @@
         <v>10800</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,7 +1665,7 @@
         <v>10790</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,11 +1790,11 @@
         <v>2022</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -1729,11 +1861,11 @@
         <v>2023</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
@@ -1748,7 +1880,7 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="26">
-        <f>D96/80*100</f>
+        <f>D98/80*100</f>
         <v>267250</v>
       </c>
       <c r="E73" s="29">
@@ -1763,13 +1895,13 @@
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="11"/>
@@ -1846,7 +1978,7 @@
         <v>7020</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>55</v>
@@ -1857,7 +1989,7 @@
         <v>1268616</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79">
         <f>D79*1.25</f>
@@ -1867,168 +1999,115 @@
         <v>13000</v>
       </c>
       <c r="E79" s="13">
-        <f>C79*20/100</f>
-        <v>3250</v>
+        <v>-545</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s">
         <v>75</v>
       </c>
-      <c r="H79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>1268616</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C83" s="10">
         <v>168750</v>
       </c>
-      <c r="D81" s="30">
+      <c r="D83" s="30">
         <v>135000</v>
       </c>
-      <c r="E81" s="10">
-        <f>C81*20/100</f>
+      <c r="E83" s="10">
+        <f>C83*20/100</f>
         <v>33750</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" s="12" t="s">
+      <c r="F83" s="13"/>
+      <c r="G83" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1268616</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84">
-        <f>D84*1.25</f>
-        <v>3000</v>
-      </c>
-      <c r="D84" s="13">
-        <v>2400</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13">
-        <f>C84*0.2</f>
-        <v>600</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1268616</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85">
-        <f>D85*1.25</f>
-        <v>3000</v>
-      </c>
-      <c r="D85" s="13">
-        <v>2400</v>
-      </c>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="13">
-        <f t="shared" ref="F85:F88" si="0">C85*0.2</f>
-        <v>600</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1268616</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C86">
         <f>D86*1.25</f>
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="D86" s="13">
-        <v>10000</v>
+        <v>2400</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13">
-        <f t="shared" si="0"/>
-        <v>2500</v>
+        <f>C86*0.2</f>
+        <v>600</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1268616</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>61</v>
+      <c r="B87" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C87">
         <f>D87*1.25</f>
-        <v>7500</v>
-      </c>
-      <c r="D87" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>3000</v>
+      </c>
+      <c r="D87" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E87" s="13"/>
       <c r="F87" s="13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" t="s">
-        <v>63</v>
+        <f t="shared" ref="F87:F90" si="0">C87*0.2</f>
+        <v>600</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1268616</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>71</v>
+      <c r="B88" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C88">
         <f>D88*1.25</f>
         <v>12500</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="13">
         <v>10000</v>
       </c>
       <c r="E88" s="13"/>
@@ -2036,211 +2115,938 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1268616</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89">
+        <f>D89*1.25</f>
+        <v>7500</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="13">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1268616</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <f>D90*1.25</f>
+        <v>12500</v>
+      </c>
+      <c r="D90" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
         <v>72</v>
       </c>
-      <c r="H88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D89" s="2"/>
-      <c r="E89" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" t="s">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="E92" s="2">
+        <f>SUM(E75:E91)</f>
+        <v>41955</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E94" s="36"/>
+      <c r="F94" s="37"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="22">
+        <f>SUM(C75:C94)</f>
+        <v>267250</v>
+      </c>
+      <c r="D98" s="38">
+        <f>SUM(D75:D95)</f>
+        <v>213800</v>
+      </c>
+      <c r="E98" s="39">
+        <f>E92</f>
+        <v>41955</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="D99" s="38">
+        <f>C98*C99</f>
+        <v>40087.5</v>
+      </c>
+      <c r="E99" s="39"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="38">
+        <f>C98-D99</f>
+        <v>227162.5</v>
+      </c>
+      <c r="E100" s="39"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C102" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="D102" s="4">
+        <f>B102*C102</f>
+        <v>10500</v>
+      </c>
+      <c r="E102" s="39"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C103" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="D103" s="4">
+        <f>B103*C103</f>
+        <v>16000</v>
+      </c>
+      <c r="E103" s="39"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
+        <f>D100-B103-B102</f>
+        <v>77162.5</v>
+      </c>
+      <c r="C104" s="41">
+        <v>0.27</v>
+      </c>
+      <c r="D104" s="4">
+        <f>B104*C104</f>
+        <v>20833.875</v>
+      </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="49">
+        <f>SUM(D102:D104)</f>
+        <v>47333.875</v>
+      </c>
+      <c r="E105" s="39"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="20">
+        <f>D105-E98</f>
+        <v>5378.875</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="E90" s="2">
-        <f>SUM(E75:E89)</f>
-        <v>45750</v>
-      </c>
-      <c r="F90" s="2">
-        <f>SUM(F84:F89)</f>
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E92" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="38">
-        <f>F90+E90</f>
-        <v>53450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="10"/>
-      <c r="C95" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="22">
-        <f>SUM(C75:C92)</f>
-        <v>267250</v>
-      </c>
-      <c r="D96" s="39">
-        <f>SUM(D75:D93)</f>
-        <v>213800</v>
-      </c>
-      <c r="E96" s="40">
-        <f>E90</f>
-        <v>45750</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="9">
-        <f>D73*0.2</f>
-        <v>53450</v>
-      </c>
-      <c r="E97" s="20">
-        <f>E96-D97</f>
-        <v>-7700</v>
-      </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="35">
-        <v>1395</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="E99" s="4">
-        <f>E97+E98</f>
-        <v>-6305</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="D109" s="4"/>
+      <c r="E109" s="34">
+        <v>3795</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="E110" s="4">
+        <f>E108-E109</f>
+        <v>1583.875</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" s="2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="2">
         <f>SUM(D75:D77)</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116">
         <v>13000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D106" s="2">
-        <f>SUM(D104:D105)</f>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="2">
+        <f>SUM(D115:D116)</f>
         <v>48000</v>
       </c>
-      <c r="E106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="30">
-        <f>D106*0.2</f>
-        <v>9600</v>
-      </c>
-      <c r="E107" s="36">
-        <f>D107-E111</f>
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109">
-        <v>6000</v>
-      </c>
-      <c r="E109">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D110">
-        <v>35025</v>
-      </c>
-      <c r="E110">
-        <v>7005</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E111" s="34">
-        <f>SUM(E109:E110)</f>
+      <c r="E117" s="30">
+        <f>D117/80*20</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>41025</v>
+      </c>
+      <c r="E118">
         <v>8205</v>
       </c>
     </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="E119" s="35">
+        <f>E117-E118</f>
+        <v>3795</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H91">
-    <sortCondition ref="A15:A91"/>
-    <sortCondition ref="D15:D91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H93">
+    <sortCondition ref="A15:A93"/>
+    <sortCondition ref="D15:D93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB490E-E414-4B4E-9469-03FAF9A9D1D9}">
+  <dimension ref="B3:H50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="12.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4/80*100</f>
+        <v>12500</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5/80*100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>D5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="4">
+        <v>135000</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6/80*100</f>
+        <v>168750</v>
+      </c>
+      <c r="E6" s="4">
+        <f>D6-C6</f>
+        <v>33750</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7/80*100</f>
+        <v>7500</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4">
+        <v>48000</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8/80*100</f>
+        <v>60000</v>
+      </c>
+      <c r="E8" s="47">
+        <f>D8-C8</f>
+        <v>12000</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="4">
+        <v>14800</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/80*100</f>
+        <v>18500</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="43">
+        <f>SUM(C4:C9)</f>
+        <v>213800</v>
+      </c>
+      <c r="D10" s="43">
+        <f>SUM(D4:D9)</f>
+        <v>267250</v>
+      </c>
+      <c r="E10" s="43">
+        <f>SUM(E4:E9)</f>
+        <v>45750</v>
+      </c>
+      <c r="F10" s="43">
+        <f>SUM(F4:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="43">
+        <f>SUM(E10:F10)</f>
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4">
+        <v>267250</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D13*C14</f>
+        <v>40087.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43">
+        <f>D13-D14</f>
+        <v>227162.5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="47">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C17" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17*C17</f>
+        <v>10500</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C18" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18*C18</f>
+        <v>16000</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="4">
+        <f>G16-G17</f>
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <f>D15-B18-B17</f>
+        <v>77162.5</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0.27</v>
+      </c>
+      <c r="D19" s="4">
+        <f>B19*C19</f>
+        <v>20833.875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4">
+        <f>SUM(D17:D19)</f>
+        <v>47333.875</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="4">
+        <v>41955</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="50">
+        <f>D20-D21</f>
+        <v>5378.875</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="43">
+        <f>G18</f>
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="48">
+        <f>D22-D23</f>
+        <v>1583.875</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="45"/>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D29" s="4">
+        <f>C29/80*100</f>
+        <v>31250</v>
+      </c>
+      <c r="F29" s="4">
+        <f>D29-C29</f>
+        <v>6250</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="4">
+        <v>170000</v>
+      </c>
+      <c r="D30" s="4">
+        <f>C30/80*100</f>
+        <v>212500</v>
+      </c>
+      <c r="E30" s="4">
+        <f>D30-C30</f>
+        <v>42500</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="4">
+        <v>135000</v>
+      </c>
+      <c r="D31" s="4">
+        <f>C31/80*100</f>
+        <v>168750</v>
+      </c>
+      <c r="E31" s="4">
+        <f>D31-C31</f>
+        <v>33750</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D32" s="4">
+        <f>C32/80*100</f>
+        <v>31250</v>
+      </c>
+      <c r="F32" s="4">
+        <f>D32-C32</f>
+        <v>6250</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4">
+        <v>48000</v>
+      </c>
+      <c r="D33" s="4">
+        <f>C33/80*100</f>
+        <v>60000</v>
+      </c>
+      <c r="E33" s="4">
+        <f>D33-C33</f>
+        <v>12000</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D34" s="4">
+        <f>C34/80*100</f>
+        <v>31250</v>
+      </c>
+      <c r="F34" s="4">
+        <f>D34-C34</f>
+        <v>6250</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="43">
+        <f>SUM(C29:C34)</f>
+        <v>428000</v>
+      </c>
+      <c r="D35" s="43">
+        <f>SUM(D29:D34)</f>
+        <v>535000</v>
+      </c>
+      <c r="E35" s="43">
+        <f>SUM(E29:E34)</f>
+        <v>88250</v>
+      </c>
+      <c r="F35" s="43">
+        <f>SUM(F29:F34)</f>
+        <v>18750</v>
+      </c>
+      <c r="G35" s="43">
+        <f>SUM(E35:F35)</f>
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="4">
+        <v>322500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="4">
+        <f>D38*C39</f>
+        <v>48375</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43">
+        <f>D38-D39</f>
+        <v>274125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C42" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="D42" s="4">
+        <f>B42*C42</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C43" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="4">
+        <f>B43*C43</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <f>D40-B43-B42</f>
+        <v>124125</v>
+      </c>
+      <c r="C44" s="41">
+        <v>0.27</v>
+      </c>
+      <c r="D44" s="4">
+        <f>B44*C44</f>
+        <v>33513.75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="4">
+        <f>SUM(D42:D44)</f>
+        <v>60013.75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="4">
+        <f>E35</f>
+        <v>88250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="52">
+        <f>D45-D46</f>
+        <v>-28236.25</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="52">
+        <f>F35*-1</f>
+        <v>-18750</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="56"/>
+      <c r="D50" s="54">
+        <f>SUM(D47:D49)</f>
+        <v>-46986.25</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\011_ 2018-2023_ Kira-Mali_Hesaplar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAC3BC-EAE5-47D3-87FA-8EF1FA1FB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717D5B4-704A-4007-90BB-8AE3DE61368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="ADRES KOD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
   <si>
     <t>22/12/2016</t>
   </si>
@@ -235,9 +236,6 @@
     <t>kira bedeli</t>
   </si>
   <si>
-    <t>kesinti ile ödenmiş</t>
-  </si>
-  <si>
     <t>ALİ DEMİREL 2024 YILI İŞYERİ KİRA 128.000 ÜZERİ TEFE-TÜFE FARKININ ÜZERİNDE YT*ALİ DEMİREL*H2312325674979</t>
   </si>
   <si>
@@ -313,21 +311,12 @@
     <t>vergisi aub tarafından ödenecek</t>
   </si>
   <si>
-    <t>vergiler</t>
-  </si>
-  <si>
-    <t>ödenmiş</t>
-  </si>
-  <si>
     <t>brüt</t>
   </si>
   <si>
     <t>net</t>
   </si>
   <si>
-    <t>merdal kipel eksik ödeme</t>
-  </si>
-  <si>
     <t>merdal kipel</t>
   </si>
   <si>
@@ -337,24 +326,12 @@
     <t>icradan</t>
   </si>
   <si>
-    <t>vergisi ödenen</t>
-  </si>
-  <si>
-    <t>ödeme</t>
-  </si>
-  <si>
-    <t>eksik vergi</t>
-  </si>
-  <si>
     <t>brüt kira</t>
   </si>
   <si>
     <t>net kira</t>
   </si>
   <si>
-    <t>ödenmiş vergi</t>
-  </si>
-  <si>
     <t>TOPLAMLAR</t>
   </si>
   <si>
@@ -421,19 +398,76 @@
     <t>2023 ödenen vergi</t>
   </si>
   <si>
-    <t>resmi ödenen vergi</t>
-  </si>
-  <si>
-    <t>vergi tutarı</t>
-  </si>
-  <si>
     <t>götürü istisna</t>
   </si>
   <si>
     <t>vergiye tabii</t>
   </si>
   <si>
-    <t>ödenecek vergi</t>
+    <t>ödenecek</t>
+  </si>
+  <si>
+    <t>kesintiyle ödenen</t>
+  </si>
+  <si>
+    <t>net alınan</t>
+  </si>
+  <si>
+    <t>biz 35000 banka + 13000 icra dairesi 48000 aldık ve öyle beyan ettik</t>
+  </si>
+  <si>
+    <t>Deftere tabii olan kiracılar</t>
+  </si>
+  <si>
+    <t>Götürü usul defter kiracılar</t>
+  </si>
+  <si>
+    <t>merdal kipel vergi dairesine 41,025 TL üzerinden 8205 TL kesinti ödemesi göstermiş</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   brüt  41,025 TL üzerinden %20 vergi 8205 TL göstermiş</t>
+  </si>
+  <si>
+    <t>merdalın muhasebe brüt 51 281,25 TL  net 41,025 TL vergi 10,256,25 göstermesi gerekirken</t>
+  </si>
+  <si>
+    <t>merdalın muhasebe brüt 60 000,00 TL  net 48,000 TL vergi 12,000,00 göstererek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kesinti yoluyla ödemesi gereken 12000 TL vergi yerine 8205 TL vergi ödemiş </t>
+  </si>
+  <si>
+    <t>12000 - 8205 = 3795 TL merdal kipele ait vergiyi biz mdemiş olduk, hesabına yazıldı</t>
+  </si>
+  <si>
+    <t>toplam</t>
+  </si>
+  <si>
+    <t>gösterilen</t>
+  </si>
+  <si>
+    <t>eksik ödenen vergi</t>
+  </si>
+  <si>
+    <t>beyan ettiği</t>
+  </si>
+  <si>
+    <t>Toplamlar</t>
+  </si>
+  <si>
+    <t>resmi ödenecek vergi</t>
+  </si>
+  <si>
+    <t>TAHMİN</t>
+  </si>
+  <si>
+    <t>DOĞUŞ</t>
+  </si>
+  <si>
+    <t>TUZGÜMRÜĞÜ</t>
+  </si>
+  <si>
+    <t>VERGİ DAİRESİ ADRES KODLARI</t>
   </si>
 </sst>
 </file>
@@ -443,7 +477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +560,16 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,13 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,13 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,7 +694,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -663,12 +704,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -684,7 +720,7 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -701,6 +737,24 @@
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A95" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,17 +1093,17 @@
         <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
         <v>2016</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="22"/>
+      <c r="B2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1072,24 +1126,30 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>2018</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="26" t="s">
-        <v>84</v>
+      <c r="B5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="C6" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="C7">
         <f>D7*0.8</f>
         <v>32500</v>
       </c>
@@ -1100,7 +1160,7 @@
         <v>8125</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1111,221 +1171,224 @@
         <v>350</v>
       </c>
       <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="26" t="s">
-        <v>84</v>
+      <c r="C10" s="19"/>
+      <c r="D10" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>D11*0.8</f>
+      <c r="A11" s="19"/>
+      <c r="C11" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>D12*0.8</f>
         <v>39000</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>48750</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>9750</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="G13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="C18" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="C19">
+        <v>44000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>48888.88</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4888.8900000000003</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="C20" s="24">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="2">
         <v>2000</v>
       </c>
-      <c r="E12">
-        <v>400</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17">
+      <c r="E20" s="2">
+        <v>200</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>382789</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7">
         <v>44000</v>
       </c>
-      <c r="D17" s="2">
-        <v>48888.88</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4888.8900000000003</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="27">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>382789</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8">
         <v>1800</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="2">
-        <v>200</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>382789</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7">
-        <v>44000</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>382789</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8">
-        <v>1800</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="3" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>382789</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="25">
-        <v>4800</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>66927</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="24">
-        <v>24000</v>
-      </c>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26">
+        <v>382789</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>66927</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="21">
+        <v>24000</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>77</v>
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,7 +1399,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1346,7 +1409,20 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1357,136 +1433,112 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <v>2021</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="B34" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="C35" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>66927</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7">
+      <c r="C36" s="6"/>
+      <c r="D36" s="7">
         <v>6000</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="3" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>382789</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8">
+      <c r="C37" s="6"/>
+      <c r="D37" s="8">
         <v>3000</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
         <v>2022</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>382789</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4">
-        <v>500</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>382789</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7">
-        <v>3300</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" t="s">
-        <v>35</v>
+      <c r="B43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>382789</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="24">
-        <v>10300</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,554 +1546,584 @@
         <v>382789</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4">
+        <v>500</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>382789</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>382789</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="21">
+        <v>10300</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>382789</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="24">
+      <c r="C49" s="1"/>
+      <c r="D49" s="21">
         <v>9000</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="3" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>2020</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>382789</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="25">
-        <v>4800</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>66927</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="24">
-        <v>24000</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" t="s">
-        <v>5</v>
-      </c>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="13"/>
+      <c r="A53" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="13"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>64</v>
+      </c>
       <c r="F54" s="13"/>
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>D55*0.8</f>
-        <v>51800</v>
-      </c>
-      <c r="D55">
-        <v>64750</v>
-      </c>
-      <c r="E55">
-        <f>E57</f>
-        <v>10790</v>
-      </c>
-      <c r="G55" t="s">
-        <v>90</v>
+      <c r="A55">
+        <v>382789</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="22">
+        <v>4800</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="4">
-        <f>D60+D61</f>
-        <v>10800</v>
-      </c>
-      <c r="G56" t="s">
-        <v>91</v>
+      <c r="A56" s="1">
+        <v>66927</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="21">
+        <v>24000</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="2">
-        <f>D59</f>
-        <v>43160</v>
-      </c>
-      <c r="E57">
-        <v>10790</v>
-      </c>
-      <c r="G57" t="s">
-        <v>89</v>
-      </c>
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f>D61*0.8</f>
+        <v>51800</v>
+      </c>
+      <c r="D61">
+        <v>64750</v>
+      </c>
+      <c r="E61">
+        <f>E63</f>
+        <v>10790</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="4">
+        <f>D66+D67</f>
+        <v>10800</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="2">
+        <f>D65</f>
+        <v>43160</v>
+      </c>
+      <c r="E63">
+        <v>10790</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>1268616</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="13">
+      <c r="C65" s="10"/>
+      <c r="D65" s="13">
         <v>43160</v>
       </c>
-      <c r="E59" s="13">
-        <f>D59/80*100*0.2</f>
+      <c r="E65" s="13">
+        <f>D65/80*100*0.2</f>
         <v>10790</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="11" t="s">
+      <c r="F65" s="13"/>
+      <c r="G65" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>1268616</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="13">
+      <c r="C66" s="10"/>
+      <c r="D66" s="13">
         <v>4800</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1268616</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="13">
-        <v>6000</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="14">
-        <f>SUM(D59:D61)</f>
-        <v>53960</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1268616</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="16">
-        <v>5997</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="26" t="s">
-        <v>84</v>
+      <c r="A67">
+        <v>1268616</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="13">
+        <v>6000</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
+      <c r="G67" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68">
-        <f>D68*0.8</f>
-        <v>80000</v>
-      </c>
-      <c r="D68" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E68" s="13">
-        <v>20000</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="14">
+        <f>SUM(D65:D67)</f>
+        <v>53960</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1268616</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C70" s="10"/>
-      <c r="D70" s="13">
-        <v>80000</v>
+      <c r="D70" s="16">
+        <v>5997</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="15"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="26" t="s">
-        <v>84</v>
-      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="4">
-        <f>D73-E73</f>
-        <v>213800</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="26">
-        <f>D98/80*100</f>
-        <v>267250</v>
-      </c>
-      <c r="E73" s="29">
-        <f>D73*0.2</f>
-        <v>53450</v>
-      </c>
+      <c r="A73" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>83</v>
+      <c r="A74" s="19"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>64</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1268616</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="A75" s="19"/>
       <c r="C75">
-        <f>D75*1.25</f>
-        <v>6000</v>
-      </c>
-      <c r="D75" s="13">
-        <v>4800</v>
+        <f>D75*0.8</f>
+        <v>80000</v>
+      </c>
+      <c r="D75" s="25">
+        <v>100000</v>
       </c>
       <c r="E75" s="13">
-        <f>C75*20/100</f>
-        <v>1200</v>
+        <v>20000</v>
       </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1268616</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76">
-        <f>D76*1.25</f>
-        <v>2650</v>
-      </c>
-      <c r="D76" s="13">
-        <v>2120</v>
-      </c>
-      <c r="E76" s="13">
-        <f>C76*20/100</f>
-        <v>530</v>
-      </c>
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1268616</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77">
-        <f>D77*1.25</f>
-        <v>35100</v>
-      </c>
-      <c r="D77" s="30">
-        <v>28080</v>
-      </c>
-      <c r="E77" s="13">
-        <f>C77*20/100</f>
-        <v>7020</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="13">
+        <v>80000</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="11" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>55</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1268616</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79">
-        <f>D79*1.25</f>
-        <v>16250</v>
-      </c>
-      <c r="D79" s="2">
-        <v>13000</v>
-      </c>
-      <c r="E79" s="13">
-        <v>-545</v>
-      </c>
+      <c r="A79" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="13"/>
       <c r="F79" s="13"/>
-      <c r="G79" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H79" t="s">
-        <v>75</v>
-      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+      <c r="C81" s="4">
+        <f>D93</f>
+        <v>183000</v>
+      </c>
+      <c r="D81" s="57">
+        <f>C81/80*100</f>
+        <v>228750</v>
+      </c>
+      <c r="E81" s="26">
+        <f>E86+E100</f>
+        <v>41955</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="57">
+        <f>D109</f>
+        <v>30800</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="13"/>
+      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1268616</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="10">
-        <v>168750</v>
-      </c>
-      <c r="D83" s="30">
-        <v>135000</v>
-      </c>
-      <c r="E83" s="10">
-        <f>C83*20/100</f>
-        <v>33750</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="A83" s="19"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="62">
+        <f>SUM(D81:D82)</f>
+        <v>259550</v>
+      </c>
+      <c r="E83" s="63">
+        <f>E81</f>
+        <v>41955</v>
+      </c>
+      <c r="F83" s="64"/>
+      <c r="G83" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="19"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="13"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="F85" s="13"/>
-      <c r="G85" s="11"/>
+      <c r="G85" s="53" t="s">
+        <v>126</v>
+      </c>
       <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2049,25 +2131,24 @@
         <v>1268616</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86">
-        <f>D86*1.25</f>
-        <v>3000</v>
-      </c>
-      <c r="D86" s="13">
-        <v>2400</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13">
-        <f>C86*0.2</f>
-        <v>600</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C86" s="10">
+        <v>168750</v>
+      </c>
+      <c r="D86" s="27">
+        <v>135000</v>
+      </c>
+      <c r="E86" s="10">
+        <f>C86*20/100</f>
+        <v>33750</v>
+      </c>
+      <c r="F86" s="13"/>
       <c r="G86" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2075,25 +2156,25 @@
         <v>1268616</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C87">
         <f>D87*1.25</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D87" s="13">
-        <v>2400</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13">
-        <f t="shared" ref="F87:F90" si="0">C87*0.2</f>
-        <v>600</v>
-      </c>
+        <v>4800</v>
+      </c>
+      <c r="E87" s="13">
+        <f>C87*20/100</f>
+        <v>1200</v>
+      </c>
+      <c r="F87" s="13"/>
       <c r="G87" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2101,51 +2182,50 @@
         <v>1268616</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C88">
         <f>D88*1.25</f>
-        <v>12500</v>
+        <v>2650</v>
       </c>
       <c r="D88" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
+        <v>2120</v>
+      </c>
+      <c r="E88" s="13">
+        <f>C88*20/100</f>
+        <v>530</v>
+      </c>
+      <c r="F88" s="13"/>
       <c r="G88" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1268616</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>61</v>
+      <c r="B89" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C89">
         <f>D89*1.25</f>
-        <v>7500</v>
-      </c>
-      <c r="D89" s="2">
-        <v>6000</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" t="s">
-        <v>63</v>
+        <v>35100</v>
+      </c>
+      <c r="D89" s="27">
+        <v>28080</v>
+      </c>
+      <c r="E89" s="13">
+        <f>C89*20/100</f>
+        <v>7020</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2153,297 +2233,459 @@
         <v>1268616</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90">
         <f>D90*1.25</f>
-        <v>12500</v>
-      </c>
-      <c r="D90" s="2">
+        <v>16250</v>
+      </c>
+      <c r="D90" s="17">
+        <v>13000</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="16">
+        <f>C90*20/100</f>
+        <v>3250</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="17">
+        <v>41025</v>
+      </c>
+      <c r="E91" s="13">
+        <v>8205</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="55">
+        <f>SUM(C86:C92)</f>
+        <v>228750</v>
+      </c>
+      <c r="D93" s="2">
+        <f>SUM(D86:D92)-D91</f>
+        <v>183000</v>
+      </c>
+      <c r="E93" s="2">
+        <f>SUM(E86+E91)</f>
+        <v>41955</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="12"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="58"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D95" s="2">
+        <v>41025</v>
+      </c>
+      <c r="E95" s="13">
+        <f>D95*0.2</f>
+        <v>8205</v>
+      </c>
+      <c r="F95" s="58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="2">
+        <f>SUM(D87:D89)</f>
+        <v>35000</v>
+      </c>
+      <c r="F97" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98">
+        <v>13000</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="2">
+        <f>SUM(D97:D98)</f>
+        <v>48000</v>
+      </c>
+      <c r="E99" s="27">
+        <f>D99/80*20</f>
+        <v>12000</v>
+      </c>
+      <c r="F99" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100">
+        <v>41025</v>
+      </c>
+      <c r="E100" s="27">
+        <f>D100/100*20</f>
+        <v>8205</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="31">
+        <f>E99-E100</f>
+        <v>3795</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="B102" s="20"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="19"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1268616</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13">
+        <f>D104*0.2</f>
+        <v>480</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1268616</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13">
+        <f t="shared" ref="F105:F108" si="0">D105*0.2</f>
+        <v>480</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1268616</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="13">
         <v>10000</v>
       </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13">
+      <c r="E106" s="13"/>
+      <c r="F106" s="13">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="G90" s="3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1268616</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="13">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1268616</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H108" t="s">
         <v>71</v>
       </c>
-      <c r="H90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D91" s="2"/>
-      <c r="E91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="E92" s="2">
-        <f>SUM(E75:E91)</f>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D109" s="56">
+        <f>SUM(D104:D108)</f>
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="37">
+        <f>D83</f>
+        <v>259550</v>
+      </c>
+      <c r="D112" s="32"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="D113" s="32">
+        <f>C112*C113</f>
+        <v>38932.5</v>
+      </c>
+      <c r="E113" s="33"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="32">
+        <f>C112-D113</f>
+        <v>220617.5</v>
+      </c>
+      <c r="E114" s="33"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="18"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C116" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="D116" s="4">
+        <f>B116*C116</f>
+        <v>10500</v>
+      </c>
+      <c r="E116" s="33"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C117" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D117" s="4">
+        <f>B117*C117</f>
+        <v>16000</v>
+      </c>
+      <c r="E117" s="33"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="18"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="4">
+        <f>D114-B117-B116</f>
+        <v>70617.5</v>
+      </c>
+      <c r="C118" s="35">
+        <v>0.27</v>
+      </c>
+      <c r="D118" s="4">
+        <f>B118*C118</f>
+        <v>19066.725000000002</v>
+      </c>
+      <c r="E118" s="33"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="43">
+        <f>SUM(D116:D118)</f>
+        <v>45566.725000000006</v>
+      </c>
+      <c r="E119" s="33"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="32">
+        <f>E83</f>
         <v>41955</v>
       </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E94" s="36"/>
-      <c r="F94" s="37"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="10"/>
-      <c r="C97" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="22">
-        <f>SUM(C75:C94)</f>
-        <v>267250</v>
-      </c>
-      <c r="D98" s="38">
-        <f>SUM(D75:D95)</f>
-        <v>213800</v>
-      </c>
-      <c r="E98" s="39">
-        <f>E92</f>
-        <v>41955</v>
-      </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" s="57">
-        <v>0.15</v>
-      </c>
-      <c r="D99" s="38">
-        <f>C98*C99</f>
-        <v>40087.5</v>
-      </c>
-      <c r="E99" s="39"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="18"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="38">
-        <f>C98-D99</f>
-        <v>227162.5</v>
-      </c>
-      <c r="E100" s="39"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="18"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="18"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="4">
-        <v>70000</v>
-      </c>
-      <c r="C102" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="D102" s="4">
-        <f>B102*C102</f>
-        <v>10500</v>
-      </c>
-      <c r="E102" s="39"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="18"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="4">
-        <v>80000</v>
-      </c>
-      <c r="C103" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="D103" s="4">
-        <f>B103*C103</f>
-        <v>16000</v>
-      </c>
-      <c r="E103" s="39"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="18"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="4">
-        <f>D100-B103-B102</f>
-        <v>77162.5</v>
-      </c>
-      <c r="C104" s="41">
-        <v>0.27</v>
-      </c>
-      <c r="D104" s="4">
-        <f>B104*C104</f>
-        <v>20833.875</v>
-      </c>
-      <c r="E104" s="39"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="18"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="49">
-        <f>SUM(D102:D104)</f>
-        <v>47333.875</v>
-      </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="18"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="18"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="18"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="20">
-        <f>D105-E98</f>
-        <v>5378.875</v>
-      </c>
-      <c r="F108" s="20"/>
-      <c r="G108" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>96</v>
-      </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="34">
-        <v>3795</v>
-      </c>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="E110" s="4">
-        <f>E108-E109</f>
-        <v>1583.875</v>
-      </c>
-      <c r="G110" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" s="2">
-        <f>SUM(D75:D77)</f>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>132</v>
-      </c>
-      <c r="D117" s="2">
-        <f>SUM(D115:D116)</f>
-        <v>48000</v>
-      </c>
-      <c r="E117" s="30">
-        <f>D117/80*20</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118">
-        <v>41025</v>
-      </c>
-      <c r="E118">
-        <v>8205</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-      <c r="E119" s="35">
-        <f>E117-E118</f>
-        <v>3795</v>
-      </c>
+      <c r="E120" s="33"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="32">
+        <f>D119-D120</f>
+        <v>3611.7250000000058</v>
+      </c>
+      <c r="E121" s="32"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="18"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E123" s="52"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H93">
-    <sortCondition ref="A15:A93"/>
-    <sortCondition ref="D15:D93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:H109">
+    <sortCondition ref="A16:A109"/>
+    <sortCondition ref="D16:D109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2454,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB490E-E414-4B4E-9469-03FAF9A9D1D9}">
   <dimension ref="B3:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,43 +2708,42 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4">
         <v>10000</v>
       </c>
       <c r="D4" s="4">
-        <f>C4/80*100</f>
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f>C5/80*100</f>
+        <f t="shared" ref="D4:D9" si="0">C5/80*100</f>
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -2510,18 +2751,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4">
         <v>135000</v>
       </c>
       <c r="D6" s="4">
-        <f>C6/80*100</f>
+        <f t="shared" si="0"/>
         <v>168750</v>
       </c>
       <c r="E6" s="4">
@@ -2529,132 +2770,130 @@
         <v>33750</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4">
         <v>6000</v>
       </c>
       <c r="D7" s="4">
-        <f>C7/80*100</f>
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4">
         <v>48000</v>
       </c>
       <c r="D8" s="4">
-        <f>C8/80*100</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="E8" s="47">
-        <f>D8-C8</f>
-        <v>12000</v>
+      <c r="E8" s="41">
+        <v>8205</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4">
         <v>14800</v>
       </c>
       <c r="D9" s="4">
-        <f>C9/80*100</f>
-        <v>18500</v>
+        <v>14800</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="43">
+      <c r="C10" s="37">
         <f>SUM(C4:C9)</f>
         <v>213800</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="37">
         <f>SUM(D4:D9)</f>
-        <v>267250</v>
-      </c>
-      <c r="E10" s="43">
+        <v>259550</v>
+      </c>
+      <c r="E10" s="37">
         <f>SUM(E4:E9)</f>
-        <v>45750</v>
-      </c>
-      <c r="F10" s="43">
+        <v>41955</v>
+      </c>
+      <c r="F10" s="37">
         <f>SUM(F4:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="37">
         <f>SUM(E10:F10)</f>
-        <v>45750</v>
+        <v>41955</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>115</v>
+      <c r="E11" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="46">
+      <c r="B12" s="40">
         <v>2023</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4">
-        <v>267250</v>
+        <f>D10</f>
+        <v>259550</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="41">
+        <v>103</v>
+      </c>
+      <c r="C14" s="35">
         <v>0.15</v>
       </c>
       <c r="D14" s="4">
         <f>D13*C14</f>
-        <v>40087.5</v>
+        <v>38932.5</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43">
+      <c r="B15" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37">
         <f>D13-D14</f>
-        <v>227162.5</v>
+        <v>220617.5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="47">
+      <c r="F16" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="41">
         <v>12000</v>
       </c>
     </row>
@@ -2662,7 +2901,7 @@
       <c r="B17" s="4">
         <v>70000</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="35">
         <v>0.15</v>
       </c>
       <c r="D17" s="4">
@@ -2670,7 +2909,7 @@
         <v>10500</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G17" s="4">
         <v>8205</v>
@@ -2680,7 +2919,7 @@
       <c r="B18" s="4">
         <v>80000</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="35">
         <v>0.2</v>
       </c>
       <c r="D18" s="4">
@@ -2688,7 +2927,7 @@
         <v>16000</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G18" s="4">
         <f>G16-G17</f>
@@ -2698,93 +2937,98 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f>D15-B18-B17</f>
-        <v>77162.5</v>
-      </c>
-      <c r="C19" s="41">
+        <v>70617.5</v>
+      </c>
+      <c r="C19" s="35">
         <v>0.27</v>
       </c>
       <c r="D19" s="4">
         <f>B19*C19</f>
-        <v>20833.875</v>
+        <v>19066.725000000002</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4">
         <f>SUM(D17:D19)</f>
-        <v>47333.875</v>
+        <v>45566.725000000006</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D21" s="4">
         <v>41955</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="50">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="44">
         <f>D20-D21</f>
-        <v>5378.875</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
+        <v>3611.7250000000058</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="43">
+      <c r="C23" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="37">
         <f>G18</f>
         <v>3795</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="48">
+      <c r="C24" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="42">
         <f>D22-D23</f>
-        <v>1583.875</v>
-      </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44"/>
+        <v>-183.27499999999418</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="45"/>
-      <c r="F25" s="44"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>105</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4">
         <v>25000</v>
       </c>
       <c r="D29" s="4">
-        <f>C29/80*100</f>
+        <f t="shared" ref="D29:D34" si="1">C29/80*100</f>
         <v>31250</v>
       </c>
       <c r="F29" s="4">
@@ -2792,18 +3036,18 @@
         <v>6250</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4">
         <v>170000</v>
       </c>
       <c r="D30" s="4">
-        <f>C30/80*100</f>
+        <f t="shared" si="1"/>
         <v>212500</v>
       </c>
       <c r="E30" s="4">
@@ -2811,18 +3055,18 @@
         <v>42500</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4">
         <v>135000</v>
       </c>
       <c r="D31" s="4">
-        <f>C31/80*100</f>
+        <f t="shared" si="1"/>
         <v>168750</v>
       </c>
       <c r="E31" s="4">
@@ -2830,18 +3074,18 @@
         <v>33750</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4">
         <v>25000</v>
       </c>
       <c r="D32" s="4">
-        <f>C32/80*100</f>
+        <f t="shared" si="1"/>
         <v>31250</v>
       </c>
       <c r="F32" s="4">
@@ -2849,18 +3093,18 @@
         <v>6250</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C33" s="4">
         <v>48000</v>
       </c>
       <c r="D33" s="4">
-        <f>C33/80*100</f>
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
       <c r="E33" s="4">
@@ -2868,18 +3112,18 @@
         <v>12000</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4">
         <v>25000</v>
       </c>
       <c r="D34" s="4">
-        <f>C34/80*100</f>
+        <f t="shared" si="1"/>
         <v>31250</v>
       </c>
       <c r="F34" s="4">
@@ -2887,48 +3131,48 @@
         <v>6250</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="43">
+      <c r="C35" s="37">
         <f>SUM(C29:C34)</f>
         <v>428000</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="37">
         <f>SUM(D29:D34)</f>
         <v>535000</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="37">
         <f>SUM(E29:E34)</f>
         <v>88250</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="37">
         <f>SUM(F29:F34)</f>
         <v>18750</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="37">
         <f>SUM(E35:F35)</f>
         <v>107000</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>115</v>
+      <c r="E36" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="G36"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="46">
+      <c r="B37" s="40">
         <v>2023</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4">
         <v>322500</v>
@@ -2936,9 +3180,9 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="41">
+        <v>103</v>
+      </c>
+      <c r="C39" s="35">
         <v>0.15</v>
       </c>
       <c r="D39" s="4">
@@ -2947,11 +3191,11 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43">
+      <c r="B40" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37">
         <f>D38-D39</f>
         <v>274125</v>
       </c>
@@ -2960,7 +3204,7 @@
       <c r="B42" s="4">
         <v>70000</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="35">
         <v>0.15</v>
       </c>
       <c r="D42" s="4">
@@ -2972,7 +3216,7 @@
       <c r="B43" s="4">
         <v>80000</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="35">
         <v>0.2</v>
       </c>
       <c r="D43" s="4">
@@ -2985,7 +3229,7 @@
         <f>D40-B43-B42</f>
         <v>124125</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="35">
         <v>0.27</v>
       </c>
       <c r="D44" s="4">
@@ -2995,7 +3239,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D45" s="4">
         <f>SUM(D42:D44)</f>
@@ -3004,7 +3248,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D46" s="4">
         <f>E35</f>
@@ -3012,41 +3256,81 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="52">
+      <c r="C47" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="46">
         <f>D45-D46</f>
         <v>-28236.25</v>
       </c>
-      <c r="E47" s="53" t="s">
-        <v>119</v>
+      <c r="E47" s="47" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="52">
+      <c r="C49" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="46">
         <f>F35*-1</f>
         <v>-18750</v>
       </c>
-      <c r="E49" s="53" t="s">
-        <v>119</v>
+      <c r="E49" s="47" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="56"/>
-      <c r="D50" s="54">
+      <c r="C50" s="50"/>
+      <c r="D50" s="48">
         <f>SUM(D47:D49)</f>
         <v>-46986.25</v>
       </c>
-      <c r="E50" s="55" t="s">
-        <v>121</v>
+      <c r="E50" s="49" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88A74B-3783-414D-97D1-CC66F35ADCAC}">
+  <dimension ref="C4:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="65">
+        <v>3253603652</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="65">
+        <v>1057076844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\011_ 2018-2023_ Kira-Mali_Hesaplar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1717D5B4-704A-4007-90BB-8AE3DE61368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41FE2D7-4797-4E55-875D-66854856D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
   <si>
     <t>22/12/2016</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>VERGİ DAİRESİ ADRES KODLARI</t>
+  </si>
+  <si>
+    <t>Merdal Kipel</t>
+  </si>
+  <si>
+    <t>Süleyman Akan</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,8 +574,17 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +627,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -646,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,6 +776,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2583,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B113" s="19" t="s">
         <v>120</v>
       </c>
@@ -2565,7 +2598,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B114" s="19" t="s">
         <v>121</v>
       </c>
@@ -2578,7 +2611,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
       <c r="D115" s="32"/>
@@ -2586,7 +2619,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" s="4">
         <v>70000</v>
       </c>
@@ -2601,7 +2634,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B117" s="4">
         <v>80000</v>
       </c>
@@ -2616,7 +2649,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B118" s="4">
         <f>D114-B117-B116</f>
         <v>70617.5</v>
@@ -2632,7 +2665,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="18"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
         <v>109</v>
       </c>
@@ -2645,7 +2678,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B120" s="19" t="s">
         <v>123</v>
       </c>
@@ -2658,7 +2691,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="18"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B121" s="19" t="s">
         <v>122</v>
       </c>
@@ -2671,7 +2704,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="32"/>
@@ -2679,8 +2712,465 @@
       <c r="F122" s="17"/>
       <c r="G122" s="18"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E123" s="52"/>
+    </row>
+    <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="68">
+        <v>2024</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="68"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="13"/>
+      <c r="G127" s="11"/>
+    </row>
+    <row r="128" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="68"/>
+      <c r="C128" s="4">
+        <f>D139</f>
+        <v>85000</v>
+      </c>
+      <c r="D128" s="57">
+        <f>C128/80*100</f>
+        <v>106250</v>
+      </c>
+      <c r="E128" s="26">
+        <f>E139</f>
+        <v>17000</v>
+      </c>
+      <c r="F128" s="13"/>
+      <c r="G128" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="68"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="57">
+        <f>D153</f>
+        <v>33000</v>
+      </c>
+      <c r="E129" s="26"/>
+      <c r="F129" s="13"/>
+      <c r="G129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="68"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="62">
+        <f>SUM(D128:D129)</f>
+        <v>139250</v>
+      </c>
+      <c r="E130" s="63">
+        <f>E128</f>
+        <v>17000</v>
+      </c>
+      <c r="F130" s="64"/>
+      <c r="G130" s="60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A131" s="68"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="20"/>
+      <c r="C132" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" s="13"/>
+      <c r="G132" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="66">
+        <v>45397</v>
+      </c>
+      <c r="C133" s="67">
+        <f>D133+E133</f>
+        <v>102000</v>
+      </c>
+      <c r="D133" s="27">
+        <v>85000</v>
+      </c>
+      <c r="E133" s="10">
+        <f>D133*20/100</f>
+        <v>17000</v>
+      </c>
+      <c r="F133" s="13"/>
+      <c r="G133" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="10"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139" s="70">
+        <f>SUM(C133:C138)</f>
+        <v>102000</v>
+      </c>
+      <c r="D139" s="70">
+        <f>SUM(D133:D138)</f>
+        <v>85000</v>
+      </c>
+      <c r="E139" s="70">
+        <f>SUM(E133:E138)</f>
+        <v>17000</v>
+      </c>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C140" s="12"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="58"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C141" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" s="2">
+        <f>SUM(D133:D135)</f>
+        <v>85000</v>
+      </c>
+      <c r="F141" s="58"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="19"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D143" s="2">
+        <f>SUM(D141:D142)</f>
+        <v>85000</v>
+      </c>
+      <c r="E143" s="27">
+        <f>D143/100*20</f>
+        <v>17000</v>
+      </c>
+      <c r="F143" s="58"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="19"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E144" s="27">
+        <f>D144/100*20</f>
+        <v>0</v>
+      </c>
+      <c r="F144" s="16"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E145" s="31">
+        <f>E143-E144</f>
+        <v>17000</v>
+      </c>
+      <c r="F145" s="16"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="12"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="66">
+        <v>45404</v>
+      </c>
+      <c r="D148" s="13">
+        <v>33000</v>
+      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13">
+        <f>D148*0.2</f>
+        <v>6600</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="10"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="12"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="10"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="12"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D153" s="56">
+        <f>SUM(D148:D152)</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="10"/>
+      <c r="C155" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="12"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" s="37">
+        <f>D130</f>
+        <v>139250</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="D157" s="32">
+        <f>C156*C157</f>
+        <v>20887.5</v>
+      </c>
+      <c r="E157" s="33"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="18"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="32">
+        <f>C156-D157</f>
+        <v>118362.5</v>
+      </c>
+      <c r="E158" s="33"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="4">
+        <v>100000</v>
+      </c>
+      <c r="C160" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="D160" s="4">
+        <f>B160*C160</f>
+        <v>15000</v>
+      </c>
+      <c r="E160" s="33"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="4">
+        <v>39250</v>
+      </c>
+      <c r="C161" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D161" s="4">
+        <f>B161*C161</f>
+        <v>7850</v>
+      </c>
+      <c r="E161" s="33"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="35">
+        <v>0.27</v>
+      </c>
+      <c r="D162" s="4">
+        <f>B162*C162</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="33"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="43">
+        <f>SUM(D160:D162)</f>
+        <v>22850</v>
+      </c>
+      <c r="E163" s="33"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="18"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="32">
+        <f>E130</f>
+        <v>17000</v>
+      </c>
+      <c r="E164" s="33"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="18"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="32">
+        <f>D163-D164</f>
+        <v>5850</v>
+      </c>
+      <c r="E165" s="32"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:H109">
@@ -2743,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D4:D9" si="0">C5/80*100</f>
+        <f t="shared" ref="D5:D8" si="0">C5/80*100</f>
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -3299,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88A74B-3783-414D-97D1-CC66F35ADCAC}">
   <dimension ref="C4:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\011_ 2018-2023_ Kira-Mali_Hesaplar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41FE2D7-4797-4E55-875D-66854856D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D9870C-5C19-444F-A1F8-E25D547D38AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.85546875" customWidth="1"/>
+    <col min="7" max="7" width="75" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3186,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB490E-E414-4B4E-9469-03FAF9A9D1D9}">
   <dimension ref="B3:H50"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
+++ b/2007-2023_ Hesap-Toplamlar/011_ 2018-2023_ Kira-Mali_Hesaplar/010_ 2016-2023 bankadanKira.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2007-2023_ Hesap-Toplamlar\011_ 2018-2023_ Kira-Mali_Hesaplar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D9870C-5C19-444F-A1F8-E25D547D38AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962786C-B9E9-464F-B436-04010360E769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CD6DC27-3A51-466C-87F3-E3631C0927D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="ADRES KOD" sheetId="3" r:id="rId3"/>
+    <sheet name="2024 ceza" sheetId="4" r:id="rId2"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId3"/>
+    <sheet name="ADRES KOD" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="148">
   <si>
     <t>22/12/2016</t>
   </si>
@@ -474,14 +475,21 @@
   </si>
   <si>
     <t>Süleyman Akan</t>
+  </si>
+  <si>
+    <t>hesap</t>
+  </si>
+  <si>
+    <t>hesap no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###,###,###,###,##0.00"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -667,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,18 +784,33 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,13 +1128,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DCE68-38B3-4CBB-8CF9-FB77F953DE73}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="71" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="75" customWidth="1"/>
@@ -1133,7 +1156,7 @@
       <c r="A2" s="19">
         <v>2016</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="72" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="19"/>
@@ -1142,7 +1165,7 @@
       <c r="A3">
         <v>11756</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
@@ -1162,7 +1185,7 @@
       <c r="A5" s="19">
         <v>2018</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="72" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="19"/>
@@ -1211,7 +1234,7 @@
       <c r="A10" s="19">
         <v>2019</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="72" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="19"/>
@@ -1261,7 +1284,7 @@
       <c r="A17" s="19">
         <v>2020</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="74" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="20"/>
@@ -1320,7 +1343,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="20"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1330,7 +1353,7 @@
       <c r="A22" s="5">
         <v>382789</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="75" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="6"/>
@@ -1350,7 +1373,7 @@
       <c r="A23" s="5">
         <v>382789</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="6"/>
@@ -1368,7 +1391,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="20"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1377,7 +1400,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="20"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1388,7 +1411,7 @@
       <c r="A26">
         <v>382789</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1"/>
@@ -1408,7 +1431,7 @@
       <c r="A27" s="1">
         <v>66927</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="1"/>
@@ -1426,7 +1449,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1437,7 +1460,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1448,7 +1471,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1459,7 +1482,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1468,7 +1491,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1479,7 +1502,7 @@
       <c r="A34" s="19">
         <v>2021</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="74" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="20"/>
@@ -1508,7 +1531,7 @@
       <c r="A36" s="6">
         <v>66927</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="6"/>
@@ -1528,7 +1551,7 @@
       <c r="A37" s="5">
         <v>382789</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="75" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="6"/>
@@ -1553,7 +1576,7 @@
       <c r="A43" s="19">
         <v>2022</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="74" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="20"/>
@@ -1563,7 +1586,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="54" t="s">
         <v>124</v>
       </c>
@@ -1578,7 +1601,7 @@
       <c r="A45">
         <v>382789</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="1"/>
@@ -1598,7 +1621,7 @@
       <c r="A46" s="5">
         <v>382789</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="75" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="6"/>
@@ -1618,7 +1641,7 @@
       <c r="A48">
         <v>382789</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="73" t="s">
         <v>27</v>
       </c>
       <c r="C48" s="1"/>
@@ -1638,7 +1661,7 @@
       <c r="A49">
         <v>382789</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="73" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="1"/>
@@ -1655,7 +1678,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="10"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -1666,7 +1689,7 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -1677,7 +1700,7 @@
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="10"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -1689,7 +1712,7 @@
       <c r="A53" s="19">
         <v>2020</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="74" t="s">
         <v>87</v>
       </c>
       <c r="C53" s="20"/>
@@ -1703,7 +1726,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="54" t="s">
         <v>124</v>
       </c>
@@ -1721,7 +1744,7 @@
       <c r="A55">
         <v>382789</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="1"/>
@@ -1741,7 +1764,7 @@
       <c r="A56" s="1">
         <v>66927</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="1"/>
@@ -1759,7 +1782,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="20"/>
       <c r="D57" s="23"/>
       <c r="E57" s="13"/>
@@ -1768,7 +1791,7 @@
       <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="10"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -1780,7 +1803,7 @@
       <c r="A59" s="19">
         <v>2021</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="74" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="20"/>
@@ -1794,7 +1817,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="54" t="s">
         <v>124</v>
       </c>
@@ -1846,7 +1869,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="10"/>
       <c r="D64" s="13"/>
       <c r="F64" s="13"/>
@@ -1857,7 +1880,7 @@
       <c r="A65">
         <v>1268616</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C65" s="10"/>
@@ -1878,7 +1901,7 @@
       <c r="A66">
         <v>1268616</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="70" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="10"/>
@@ -1898,7 +1921,7 @@
       <c r="A67">
         <v>1268616</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="70" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="10"/>
@@ -1915,7 +1938,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="10"/>
       <c r="D68" s="14">
         <f>SUM(D65:D67)</f>
@@ -1930,7 +1953,7 @@
       <c r="A70">
         <v>1268616</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="70" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="10"/>
@@ -1945,7 +1968,7 @@
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="10"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -1954,7 +1977,7 @@
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="10"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -1966,7 +1989,7 @@
       <c r="A73" s="19">
         <v>2022</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="74" t="s">
         <v>87</v>
       </c>
       <c r="C73" s="20"/>
@@ -1980,7 +2003,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="54" t="s">
         <v>124</v>
       </c>
@@ -2012,7 +2035,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="20"/>
       <c r="D76" s="23"/>
       <c r="E76" s="13"/>
@@ -2024,7 +2047,7 @@
       <c r="A77">
         <v>1268616</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="70" t="s">
         <v>32</v>
       </c>
       <c r="C77" s="10"/>
@@ -2041,7 +2064,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="10"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -2053,7 +2076,7 @@
       <c r="A79" s="19">
         <v>2023</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="74" t="s">
         <v>87</v>
       </c>
       <c r="C79" s="20"/>
@@ -2067,7 +2090,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="54" t="s">
         <v>124</v>
       </c>
@@ -2117,7 +2140,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
-      <c r="B83" s="60"/>
+      <c r="B83" s="77"/>
       <c r="C83" s="61"/>
       <c r="D83" s="62">
         <f>SUM(D81:D82)</f>
@@ -2143,7 +2166,10 @@
       <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="20"/>
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="74"/>
       <c r="C85" s="28" t="s">
         <v>91</v>
       </c>
@@ -2163,7 +2189,7 @@
       <c r="A86">
         <v>1268616</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="70" t="s">
         <v>59</v>
       </c>
       <c r="C86" s="10">
@@ -2188,7 +2214,7 @@
       <c r="A87">
         <v>1268616</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="70" t="s">
         <v>45</v>
       </c>
       <c r="C87">
@@ -2214,7 +2240,7 @@
       <c r="A88">
         <v>1268616</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="70" t="s">
         <v>45</v>
       </c>
       <c r="C88">
@@ -2240,7 +2266,7 @@
       <c r="A89">
         <v>1268616</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C89">
@@ -2265,7 +2291,7 @@
       <c r="A90">
         <v>1268616</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="73" t="s">
         <v>72</v>
       </c>
       <c r="C90">
@@ -2288,7 +2314,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="73" t="s">
         <v>137</v>
       </c>
       <c r="D91" s="17">
@@ -2301,7 +2327,7 @@
       <c r="G91" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="73" t="s">
         <v>138</v>
       </c>
       <c r="C93" s="55">
@@ -2354,7 +2380,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="74"/>
       <c r="C98" s="20" t="s">
         <v>95</v>
       </c>
@@ -2369,7 +2395,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="74"/>
       <c r="C99" s="20" t="s">
         <v>134</v>
       </c>
@@ -2389,7 +2415,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="20" t="s">
         <v>135</v>
       </c>
@@ -2408,7 +2434,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="74"/>
       <c r="C101" s="20" t="s">
         <v>136</v>
       </c>
@@ -2424,14 +2450,14 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="74"/>
       <c r="F102" s="16"/>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="74"/>
       <c r="C103" s="20"/>
       <c r="D103" s="23"/>
       <c r="E103" s="13"/>
@@ -2445,7 +2471,7 @@
       <c r="A104">
         <v>1268616</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="70" t="s">
         <v>50</v>
       </c>
       <c r="D104" s="13">
@@ -2467,7 +2493,7 @@
       <c r="A105">
         <v>1268616</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="70" t="s">
         <v>50</v>
       </c>
       <c r="D105" s="13">
@@ -2489,7 +2515,7 @@
       <c r="A106">
         <v>1268616</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D106" s="13">
@@ -2511,7 +2537,7 @@
       <c r="A107">
         <v>1268616</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="73" t="s">
         <v>61</v>
       </c>
       <c r="D107" s="2">
@@ -2533,7 +2559,7 @@
       <c r="A108">
         <v>1268616</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="73" t="s">
         <v>69</v>
       </c>
       <c r="D108" s="2">
@@ -2558,7 +2584,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="10"/>
+      <c r="B111" s="70"/>
       <c r="C111" s="10" t="s">
         <v>96</v>
       </c>
@@ -2571,7 +2597,7 @@
       <c r="H111" s="12"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="72" t="s">
         <v>98</v>
       </c>
       <c r="C112" s="37">
@@ -2584,7 +2610,7 @@
       <c r="G112" s="18"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="72" t="s">
         <v>120</v>
       </c>
       <c r="C113" s="51">
@@ -2599,7 +2625,7 @@
       <c r="G113" s="18"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="72" t="s">
         <v>121</v>
       </c>
       <c r="C114" s="19"/>
@@ -2612,7 +2638,7 @@
       <c r="G114" s="18"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
+      <c r="B115" s="72"/>
       <c r="C115" s="19"/>
       <c r="D115" s="32"/>
       <c r="E115" s="33"/>
@@ -2620,7 +2646,7 @@
       <c r="G115" s="18"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="4">
+      <c r="B116" s="71">
         <v>70000</v>
       </c>
       <c r="C116" s="35">
@@ -2635,7 +2661,7 @@
       <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="4">
+      <c r="B117" s="71">
         <v>80000</v>
       </c>
       <c r="C117" s="35">
@@ -2650,7 +2676,7 @@
       <c r="G117" s="18"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B118" s="4">
+      <c r="B118" s="71">
         <f>D114-B117-B116</f>
         <v>70617.5</v>
       </c>
@@ -2666,7 +2692,7 @@
       <c r="G118" s="18"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C119" s="4"/>
@@ -2679,7 +2705,7 @@
       <c r="G119" s="18"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="72" t="s">
         <v>123</v>
       </c>
       <c r="C120" s="19"/>
@@ -2692,7 +2718,7 @@
       <c r="G120" s="18"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="72" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="19"/>
@@ -2705,7 +2731,7 @@
       <c r="G121" s="18"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="19"/>
+      <c r="B122" s="72"/>
       <c r="C122" s="19"/>
       <c r="D122" s="32"/>
       <c r="E122" s="33"/>
@@ -2715,11 +2741,20 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E123" s="52"/>
     </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="79"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="79"/>
+    </row>
     <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="68">
+      <c r="A126" s="67">
         <v>2024</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="74" t="s">
         <v>87</v>
       </c>
       <c r="C126" s="20"/>
@@ -2731,8 +2766,8 @@
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="68"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="74"/>
       <c r="C127" s="54" t="s">
         <v>124</v>
       </c>
@@ -2746,7 +2781,7 @@
       <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="68"/>
+      <c r="A128" s="67"/>
       <c r="C128" s="4">
         <f>D139</f>
         <v>85000</v>
@@ -2765,7 +2800,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="68"/>
+      <c r="A129" s="67"/>
       <c r="C129" s="4"/>
       <c r="D129" s="57">
         <f>D153</f>
@@ -2778,8 +2813,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="68"/>
-      <c r="B130" s="60"/>
+      <c r="A130" s="67"/>
+      <c r="B130" s="77"/>
       <c r="C130" s="61"/>
       <c r="D130" s="62">
         <f>SUM(D128:D129)</f>
@@ -2795,10 +2830,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A131" s="68"/>
+      <c r="A131" s="67"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="20"/>
+      <c r="B132" s="74"/>
       <c r="C132" s="28" t="s">
         <v>91</v>
       </c>
@@ -2815,10 +2850,10 @@
       <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="66">
+      <c r="B133" s="70">
         <v>45397</v>
       </c>
-      <c r="C133" s="67">
+      <c r="C133" s="66">
         <f>D133+E133</f>
         <v>102000</v>
       </c>
@@ -2836,7 +2871,7 @@
       <c r="H133" s="12"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="10"/>
+      <c r="B134" s="70"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
@@ -2844,7 +2879,7 @@
       <c r="H134" s="12"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="10"/>
+      <c r="B135" s="70"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
@@ -2852,37 +2887,37 @@
       <c r="H135" s="12"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
+      <c r="B136" s="73"/>
       <c r="D136" s="17"/>
       <c r="E136" s="13"/>
       <c r="F136" s="16"/>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="1"/>
+      <c r="B137" s="73"/>
       <c r="D137" s="17"/>
       <c r="E137" s="13"/>
       <c r="F137" s="16"/>
       <c r="G137" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="69" t="s">
+      <c r="B139" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="70">
+      <c r="C139" s="68">
         <f>SUM(C133:C138)</f>
         <v>102000</v>
       </c>
-      <c r="D139" s="70">
+      <c r="D139" s="68">
         <f>SUM(D133:D138)</f>
         <v>85000</v>
       </c>
-      <c r="E139" s="70">
+      <c r="E139" s="68">
         <f>SUM(E133:E138)</f>
         <v>17000</v>
       </c>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="69"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C140" s="12"/>
@@ -2902,7 +2937,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
-      <c r="B142" s="20"/>
+      <c r="B142" s="74"/>
       <c r="C142" s="20" t="s">
         <v>95</v>
       </c>
@@ -2912,7 +2947,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
-      <c r="B143" s="20"/>
+      <c r="B143" s="74"/>
       <c r="C143" s="20" t="s">
         <v>134</v>
       </c>
@@ -2930,7 +2965,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
-      <c r="B144" s="20"/>
+      <c r="B144" s="74"/>
       <c r="C144" s="20" t="s">
         <v>135</v>
       </c>
@@ -2944,7 +2979,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="74"/>
       <c r="C145" s="20" t="s">
         <v>136</v>
       </c>
@@ -2958,14 +2993,14 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="74"/>
       <c r="F146" s="16"/>
       <c r="G146" s="11"/>
       <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="74"/>
       <c r="C147" s="20"/>
       <c r="D147" s="23"/>
       <c r="E147" s="13"/>
@@ -2976,7 +3011,7 @@
       <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="66">
+      <c r="B148" s="70">
         <v>45404</v>
       </c>
       <c r="D148" s="13">
@@ -2993,7 +3028,7 @@
       <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="10"/>
+      <c r="B149" s="70"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
@@ -3001,7 +3036,7 @@
       <c r="H149" s="12"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="10"/>
+      <c r="B150" s="70"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
@@ -3009,14 +3044,14 @@
       <c r="H150" s="12"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
+      <c r="B151" s="73"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="13"/>
       <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="1"/>
+      <c r="B152" s="73"/>
       <c r="D152" s="2"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
@@ -3029,7 +3064,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="10"/>
+      <c r="B155" s="70"/>
       <c r="C155" s="10" t="s">
         <v>96</v>
       </c>
@@ -3042,7 +3077,7 @@
       <c r="H155" s="12"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="72" t="s">
         <v>98</v>
       </c>
       <c r="C156" s="37">
@@ -3055,7 +3090,7 @@
       <c r="G156" s="18"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="72" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="51">
@@ -3070,7 +3105,7 @@
       <c r="G157" s="18"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="72" t="s">
         <v>121</v>
       </c>
       <c r="C158" s="19"/>
@@ -3083,7 +3118,7 @@
       <c r="G158" s="18"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="19"/>
+      <c r="B159" s="72"/>
       <c r="C159" s="19"/>
       <c r="D159" s="32"/>
       <c r="E159" s="33"/>
@@ -3091,7 +3126,7 @@
       <c r="G159" s="18"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="4">
+      <c r="B160" s="71">
         <v>100000</v>
       </c>
       <c r="C160" s="35">
@@ -3106,7 +3141,7 @@
       <c r="G160" s="18"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B161" s="4">
+      <c r="B161" s="71">
         <v>39250</v>
       </c>
       <c r="C161" s="35">
@@ -3121,7 +3156,6 @@
       <c r="G161" s="18"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="4"/>
       <c r="C162" s="35">
         <v>0.27</v>
       </c>
@@ -3134,7 +3168,7 @@
       <c r="G162" s="18"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C163" s="4"/>
@@ -3147,7 +3181,7 @@
       <c r="G163" s="18"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="72" t="s">
         <v>123</v>
       </c>
       <c r="C164" s="19"/>
@@ -3160,7 +3194,7 @@
       <c r="G164" s="18"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="72" t="s">
         <v>122</v>
       </c>
       <c r="C165" s="19"/>
@@ -3183,6 +3217,715 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19E4A0E-8855-43DC-863E-87F1BD404FED}">
+  <dimension ref="A2:H47"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="4">
+        <f>D16</f>
+        <v>183000</v>
+      </c>
+      <c r="D4" s="57">
+        <f>C4/80*100</f>
+        <v>228750</v>
+      </c>
+      <c r="E4" s="26">
+        <f>E9+E23</f>
+        <v>41955</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="57">
+        <f>D32</f>
+        <v>30800</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="13"/>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62">
+        <f>SUM(D4:D5)</f>
+        <v>259550</v>
+      </c>
+      <c r="E6" s="63">
+        <f>E4</f>
+        <v>41955</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1268616</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10">
+        <v>168750</v>
+      </c>
+      <c r="D9" s="27">
+        <v>135000</v>
+      </c>
+      <c r="E9" s="10">
+        <f>C9*20/100</f>
+        <v>33750</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1268616</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <f>D10*1.25</f>
+        <v>6000</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="13">
+        <f>C10*20/100</f>
+        <v>1200</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1268616</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <f>D11*1.25</f>
+        <v>2650</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2120</v>
+      </c>
+      <c r="E11" s="13">
+        <f>C11*20/100</f>
+        <v>530</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1268616</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <f>D12*1.25</f>
+        <v>35100</v>
+      </c>
+      <c r="D12" s="27">
+        <v>28080</v>
+      </c>
+      <c r="E12" s="13">
+        <f>C12*20/100</f>
+        <v>7020</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1268616</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <f>D13*1.25</f>
+        <v>16250</v>
+      </c>
+      <c r="D13" s="17">
+        <v>13000</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16">
+        <f>C13*20/100</f>
+        <v>3250</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="17">
+        <v>41025</v>
+      </c>
+      <c r="E14" s="13">
+        <v>8205</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="71"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="55">
+        <f>SUM(C9:C15)</f>
+        <v>228750</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D9:D15)-D14</f>
+        <v>183000</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM(E9+E14)</f>
+        <v>41955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="71"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="58"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
+      <c r="D18" s="2">
+        <v>41025</v>
+      </c>
+      <c r="E18" s="13">
+        <f>D18*0.2</f>
+        <v>8205</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="F19" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="71"/>
+      <c r="C20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(D10:D12)</f>
+        <v>35000</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>13000</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(D20:D21)</f>
+        <v>48000</v>
+      </c>
+      <c r="E22" s="27">
+        <f>D22/80*20</f>
+        <v>12000</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23">
+        <v>41025</v>
+      </c>
+      <c r="E23" s="27">
+        <f>D23/100*20</f>
+        <v>8205</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="31">
+        <f>E22-E23</f>
+        <v>3795</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="74"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1268616</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13">
+        <f>D27*0.2</f>
+        <v>480</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1268616</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2400</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13">
+        <f t="shared" ref="F28:F31" si="0">D28*0.2</f>
+        <v>480</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1268616</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1268616</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1268616</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="71"/>
+      <c r="D32" s="56">
+        <f>SUM(D27:D31)</f>
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="71"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="70"/>
+      <c r="C34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="37">
+        <f>D6</f>
+        <v>259550</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="D36" s="32">
+        <f>C35*C36</f>
+        <v>38932.5</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="32">
+        <f>C35-D36</f>
+        <v>220617.5</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="72"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="71">
+        <v>70000</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="4">
+        <f>B39*C39</f>
+        <v>10500</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="71">
+        <v>80000</v>
+      </c>
+      <c r="C40" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="4">
+        <f>B40*C40</f>
+        <v>16000</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="71">
+        <f>D37-B40-B39</f>
+        <v>70617.5</v>
+      </c>
+      <c r="C41" s="35">
+        <v>0.27</v>
+      </c>
+      <c r="D41" s="4">
+        <f>B41*C41</f>
+        <v>19066.725000000002</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="43">
+        <f>SUM(D39:D41)</f>
+        <v>45566.725000000006</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="32">
+        <f>E6</f>
+        <v>41955</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="32">
+        <f>D42-D43</f>
+        <v>3611.7250000000058</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="72"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="71"/>
+      <c r="E46" s="52"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB490E-E414-4B4E-9469-03FAF9A9D1D9}">
   <dimension ref="B3:H50"/>
   <sheetViews>
@@ -3785,7 +4528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88A74B-3783-414D-97D1-CC66F35ADCAC}">
   <dimension ref="C4:D7"/>
   <sheetViews>
